--- a/data/Fenner_biotransform_experimental_data.xlsx
+++ b/data/Fenner_biotransform_experimental_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serinarobinson/Documents/github/2022_jgi_gene_selection/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serinarobinson/Documents/github/github-test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72704ECC-DB35-6243-9630-BA5E37BD848B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5FC77E-9775-D84A-BF71-CEC2B38C29FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="960" windowWidth="22800" windowHeight="16060" activeTab="1" xr2:uid="{B510926B-1541-144F-8250-15101B6953E6}"/>
+    <workbookView xWindow="4300" yWindow="820" windowWidth="22800" windowHeight="16060" activeTab="1" xr2:uid="{B510926B-1541-144F-8250-15101B6953E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Expt1" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -592,11 +592,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -617,6 +626,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -935,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AAC890-DA77-6845-8FA2-AE18E0B659E2}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1685,7 +1697,7 @@
       <c r="A38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="8">
         <v>1</v>
       </c>
       <c r="C38" s="6">
@@ -1711,7 +1723,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B39"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
